--- a/2015/Day7.xlsx
+++ b/2015/Day7.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nfalero/Documents/Financial Modelling World Cup/Advent-of-Code-Excel/2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nfalero/Documents/Excel/Excel &amp; Financial Modelling/Advent-of-Code-Excel/2015/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F25CC0-CB70-1642-89AC-EC6517F600FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7820BA6-B740-4843-9BE3-FD67916E7F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="3820" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{BD9D965C-81AA-E441-BA42-DB93D2E4F26D}"/>
+    <workbookView xWindow="5560" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{BD9D965C-81AA-E441-BA42-DB93D2E4F26D}"/>
   </bookViews>
   <sheets>
     <sheet name="Solutions" sheetId="3" r:id="rId1"/>
     <sheet name="Workings" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="input">Workings!#REF!</definedName>
+    <definedName name="input">Workings!$A$1:$A$339</definedName>
     <definedName name="Number1">Workings!#REF!</definedName>
     <definedName name="Number2">Workings!#REF!</definedName>
     <definedName name="Target">Workings!#REF!</definedName>
@@ -41,19 +41,1036 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="341">
   <si>
     <t>P1 Solution:</t>
   </si>
   <si>
     <t>P2 Solution:</t>
+  </si>
+  <si>
+    <t>bn RSHIFT 2 -&gt; bo</t>
+  </si>
+  <si>
+    <t>lf RSHIFT 1 -&gt; ly</t>
+  </si>
+  <si>
+    <t>fo RSHIFT 3 -&gt; fq</t>
+  </si>
+  <si>
+    <t>cj OR cp -&gt; cq</t>
+  </si>
+  <si>
+    <t>fo OR fz -&gt; ga</t>
+  </si>
+  <si>
+    <t>t OR s -&gt; u</t>
+  </si>
+  <si>
+    <t>lx -&gt; a</t>
+  </si>
+  <si>
+    <t>NOT ax -&gt; ay</t>
+  </si>
+  <si>
+    <t>he RSHIFT 2 -&gt; hf</t>
+  </si>
+  <si>
+    <t>lf OR lq -&gt; lr</t>
+  </si>
+  <si>
+    <t>lr AND lt -&gt; lu</t>
+  </si>
+  <si>
+    <t>dy OR ej -&gt; ek</t>
+  </si>
+  <si>
+    <t>1 AND cx -&gt; cy</t>
+  </si>
+  <si>
+    <t>hb LSHIFT 1 -&gt; hv</t>
+  </si>
+  <si>
+    <t>1 AND bh -&gt; bi</t>
+  </si>
+  <si>
+    <t>ih AND ij -&gt; ik</t>
+  </si>
+  <si>
+    <t>c LSHIFT 1 -&gt; t</t>
+  </si>
+  <si>
+    <t>ea AND eb -&gt; ed</t>
+  </si>
+  <si>
+    <t>km OR kn -&gt; ko</t>
+  </si>
+  <si>
+    <t>NOT bw -&gt; bx</t>
+  </si>
+  <si>
+    <t>ci OR ct -&gt; cu</t>
+  </si>
+  <si>
+    <t>NOT p -&gt; q</t>
+  </si>
+  <si>
+    <t>lw OR lv -&gt; lx</t>
+  </si>
+  <si>
+    <t>NOT lo -&gt; lp</t>
+  </si>
+  <si>
+    <t>fp OR fv -&gt; fw</t>
+  </si>
+  <si>
+    <t>o AND q -&gt; r</t>
+  </si>
+  <si>
+    <t>dh AND dj -&gt; dk</t>
+  </si>
+  <si>
+    <t>ap LSHIFT 1 -&gt; bj</t>
+  </si>
+  <si>
+    <t>bk LSHIFT 1 -&gt; ce</t>
+  </si>
+  <si>
+    <t>NOT ii -&gt; ij</t>
+  </si>
+  <si>
+    <t>gh OR gi -&gt; gj</t>
+  </si>
+  <si>
+    <t>kk RSHIFT 1 -&gt; ld</t>
+  </si>
+  <si>
+    <t>lc LSHIFT 1 -&gt; lw</t>
+  </si>
+  <si>
+    <t>lb OR la -&gt; lc</t>
+  </si>
+  <si>
+    <t>1 AND am -&gt; an</t>
+  </si>
+  <si>
+    <t>gn AND gp -&gt; gq</t>
+  </si>
+  <si>
+    <t>lf RSHIFT 3 -&gt; lh</t>
+  </si>
+  <si>
+    <t>e OR f -&gt; g</t>
+  </si>
+  <si>
+    <t>lg AND lm -&gt; lo</t>
+  </si>
+  <si>
+    <t>ci RSHIFT 1 -&gt; db</t>
+  </si>
+  <si>
+    <t>cf LSHIFT 1 -&gt; cz</t>
+  </si>
+  <si>
+    <t>bn RSHIFT 1 -&gt; cg</t>
+  </si>
+  <si>
+    <t>et AND fe -&gt; fg</t>
+  </si>
+  <si>
+    <t>is OR it -&gt; iu</t>
+  </si>
+  <si>
+    <t>kw AND ky -&gt; kz</t>
+  </si>
+  <si>
+    <t>ck AND cl -&gt; cn</t>
+  </si>
+  <si>
+    <t>bj OR bi -&gt; bk</t>
+  </si>
+  <si>
+    <t>gj RSHIFT 1 -&gt; hc</t>
+  </si>
+  <si>
+    <t>iu AND jf -&gt; jh</t>
+  </si>
+  <si>
+    <t>NOT bs -&gt; bt</t>
+  </si>
+  <si>
+    <t>kk OR kv -&gt; kw</t>
+  </si>
+  <si>
+    <t>ks AND ku -&gt; kv</t>
+  </si>
+  <si>
+    <t>hz OR ik -&gt; il</t>
+  </si>
+  <si>
+    <t>b RSHIFT 1 -&gt; v</t>
+  </si>
+  <si>
+    <t>iu RSHIFT 1 -&gt; jn</t>
+  </si>
+  <si>
+    <t>fo RSHIFT 5 -&gt; fr</t>
+  </si>
+  <si>
+    <t>be AND bg -&gt; bh</t>
+  </si>
+  <si>
+    <t>ga AND gc -&gt; gd</t>
+  </si>
+  <si>
+    <t>hf OR hl -&gt; hm</t>
+  </si>
+  <si>
+    <t>ld OR le -&gt; lf</t>
+  </si>
+  <si>
+    <t>as RSHIFT 5 -&gt; av</t>
+  </si>
+  <si>
+    <t>fm OR fn -&gt; fo</t>
+  </si>
+  <si>
+    <t>hm AND ho -&gt; hp</t>
+  </si>
+  <si>
+    <t>lg OR lm -&gt; ln</t>
+  </si>
+  <si>
+    <t>NOT kx -&gt; ky</t>
+  </si>
+  <si>
+    <t>kk RSHIFT 3 -&gt; km</t>
+  </si>
+  <si>
+    <t>ek AND em -&gt; en</t>
+  </si>
+  <si>
+    <t>NOT ft -&gt; fu</t>
+  </si>
+  <si>
+    <t>NOT jh -&gt; ji</t>
+  </si>
+  <si>
+    <t>jn OR jo -&gt; jp</t>
+  </si>
+  <si>
+    <t>gj AND gu -&gt; gw</t>
+  </si>
+  <si>
+    <t>d AND j -&gt; l</t>
+  </si>
+  <si>
+    <t>et RSHIFT 1 -&gt; fm</t>
+  </si>
+  <si>
+    <t>jq OR jw -&gt; jx</t>
+  </si>
+  <si>
+    <t>ep OR eo -&gt; eq</t>
+  </si>
+  <si>
+    <t>lv LSHIFT 15 -&gt; lz</t>
+  </si>
+  <si>
+    <t>NOT ey -&gt; ez</t>
+  </si>
+  <si>
+    <t>jp RSHIFT 2 -&gt; jq</t>
+  </si>
+  <si>
+    <t>eg AND ei -&gt; ej</t>
+  </si>
+  <si>
+    <t>NOT dm -&gt; dn</t>
+  </si>
+  <si>
+    <t>jp AND ka -&gt; kc</t>
+  </si>
+  <si>
+    <t>as AND bd -&gt; bf</t>
+  </si>
+  <si>
+    <t>fk OR fj -&gt; fl</t>
+  </si>
+  <si>
+    <t>dw OR dx -&gt; dy</t>
+  </si>
+  <si>
+    <t>lj AND ll -&gt; lm</t>
+  </si>
+  <si>
+    <t>ec AND ee -&gt; ef</t>
+  </si>
+  <si>
+    <t>fq AND fr -&gt; ft</t>
+  </si>
+  <si>
+    <t>NOT kp -&gt; kq</t>
+  </si>
+  <si>
+    <t>ki OR kj -&gt; kk</t>
+  </si>
+  <si>
+    <t>cz OR cy -&gt; da</t>
+  </si>
+  <si>
+    <t>as RSHIFT 3 -&gt; au</t>
+  </si>
+  <si>
+    <t>an LSHIFT 15 -&gt; ar</t>
+  </si>
+  <si>
+    <t>fj LSHIFT 15 -&gt; fn</t>
+  </si>
+  <si>
+    <t>1 AND fi -&gt; fj</t>
+  </si>
+  <si>
+    <t>he RSHIFT 1 -&gt; hx</t>
+  </si>
+  <si>
+    <t>lf RSHIFT 2 -&gt; lg</t>
+  </si>
+  <si>
+    <t>kf LSHIFT 15 -&gt; kj</t>
+  </si>
+  <si>
+    <t>dz AND ef -&gt; eh</t>
+  </si>
+  <si>
+    <t>ib OR ic -&gt; id</t>
+  </si>
+  <si>
+    <t>lf RSHIFT 5 -&gt; li</t>
+  </si>
+  <si>
+    <t>bp OR bq -&gt; br</t>
+  </si>
+  <si>
+    <t>NOT gs -&gt; gt</t>
+  </si>
+  <si>
+    <t>fo RSHIFT 1 -&gt; gh</t>
+  </si>
+  <si>
+    <t>bz AND cb -&gt; cc</t>
+  </si>
+  <si>
+    <t>ea OR eb -&gt; ec</t>
+  </si>
+  <si>
+    <t>lf AND lq -&gt; ls</t>
+  </si>
+  <si>
+    <t>NOT l -&gt; m</t>
+  </si>
+  <si>
+    <t>hz RSHIFT 3 -&gt; ib</t>
+  </si>
+  <si>
+    <t>NOT di -&gt; dj</t>
+  </si>
+  <si>
+    <t>NOT lk -&gt; ll</t>
+  </si>
+  <si>
+    <t>jp RSHIFT 3 -&gt; jr</t>
+  </si>
+  <si>
+    <t>jp RSHIFT 5 -&gt; js</t>
+  </si>
+  <si>
+    <t>NOT bf -&gt; bg</t>
+  </si>
+  <si>
+    <t>s LSHIFT 15 -&gt; w</t>
+  </si>
+  <si>
+    <t>eq LSHIFT 1 -&gt; fk</t>
+  </si>
+  <si>
+    <t>jl OR jk -&gt; jm</t>
+  </si>
+  <si>
+    <t>hz AND ik -&gt; im</t>
+  </si>
+  <si>
+    <t>dz OR ef -&gt; eg</t>
+  </si>
+  <si>
+    <t>1 AND gy -&gt; gz</t>
+  </si>
+  <si>
+    <t>la LSHIFT 15 -&gt; le</t>
+  </si>
+  <si>
+    <t>br AND bt -&gt; bu</t>
+  </si>
+  <si>
+    <t>NOT cn -&gt; co</t>
+  </si>
+  <si>
+    <t>v OR w -&gt; x</t>
+  </si>
+  <si>
+    <t>d OR j -&gt; k</t>
+  </si>
+  <si>
+    <t>1 AND gd -&gt; ge</t>
+  </si>
+  <si>
+    <t>ia OR ig -&gt; ih</t>
+  </si>
+  <si>
+    <t>NOT go -&gt; gp</t>
+  </si>
+  <si>
+    <t>NOT ed -&gt; ee</t>
+  </si>
+  <si>
+    <t>jq AND jw -&gt; jy</t>
+  </si>
+  <si>
+    <t>et OR fe -&gt; ff</t>
+  </si>
+  <si>
+    <t>aw AND ay -&gt; az</t>
+  </si>
+  <si>
+    <t>ff AND fh -&gt; fi</t>
+  </si>
+  <si>
+    <t>ir LSHIFT 1 -&gt; jl</t>
+  </si>
+  <si>
+    <t>gg LSHIFT 1 -&gt; ha</t>
+  </si>
+  <si>
+    <t>x RSHIFT 2 -&gt; y</t>
+  </si>
+  <si>
+    <t>db OR dc -&gt; dd</t>
+  </si>
+  <si>
+    <t>bl OR bm -&gt; bn</t>
+  </si>
+  <si>
+    <t>ib AND ic -&gt; ie</t>
+  </si>
+  <si>
+    <t>x RSHIFT 3 -&gt; z</t>
+  </si>
+  <si>
+    <t>lh AND li -&gt; lk</t>
+  </si>
+  <si>
+    <t>ce OR cd -&gt; cf</t>
+  </si>
+  <si>
+    <t>NOT bb -&gt; bc</t>
+  </si>
+  <si>
+    <t>hi AND hk -&gt; hl</t>
+  </si>
+  <si>
+    <t>NOT gb -&gt; gc</t>
+  </si>
+  <si>
+    <t>1 AND r -&gt; s</t>
+  </si>
+  <si>
+    <t>fw AND fy -&gt; fz</t>
+  </si>
+  <si>
+    <t>fb AND fd -&gt; fe</t>
+  </si>
+  <si>
+    <t>1 AND en -&gt; eo</t>
+  </si>
+  <si>
+    <t>z OR aa -&gt; ab</t>
+  </si>
+  <si>
+    <t>bi LSHIFT 15 -&gt; bm</t>
+  </si>
+  <si>
+    <t>hg OR hh -&gt; hi</t>
+  </si>
+  <si>
+    <t>kh LSHIFT 1 -&gt; lb</t>
+  </si>
+  <si>
+    <t>cg OR ch -&gt; ci</t>
+  </si>
+  <si>
+    <t>1 AND kz -&gt; la</t>
+  </si>
+  <si>
+    <t>gf OR ge -&gt; gg</t>
+  </si>
+  <si>
+    <t>gj RSHIFT 2 -&gt; gk</t>
+  </si>
+  <si>
+    <t>dd RSHIFT 2 -&gt; de</t>
+  </si>
+  <si>
+    <t>NOT ls -&gt; lt</t>
+  </si>
+  <si>
+    <t>lh OR li -&gt; lj</t>
+  </si>
+  <si>
+    <t>jr OR js -&gt; jt</t>
+  </si>
+  <si>
+    <t>au AND av -&gt; ax</t>
+  </si>
+  <si>
+    <t>0 -&gt; c</t>
+  </si>
+  <si>
+    <t>he AND hp -&gt; hr</t>
+  </si>
+  <si>
+    <t>id AND if -&gt; ig</t>
+  </si>
+  <si>
+    <t>et RSHIFT 5 -&gt; ew</t>
+  </si>
+  <si>
+    <t>bp AND bq -&gt; bs</t>
+  </si>
+  <si>
+    <t>e AND f -&gt; h</t>
+  </si>
+  <si>
+    <t>ly OR lz -&gt; ma</t>
+  </si>
+  <si>
+    <t>1 AND lu -&gt; lv</t>
+  </si>
+  <si>
+    <t>NOT jd -&gt; je</t>
+  </si>
+  <si>
+    <t>ha OR gz -&gt; hb</t>
+  </si>
+  <si>
+    <t>dy RSHIFT 1 -&gt; er</t>
+  </si>
+  <si>
+    <t>iu RSHIFT 2 -&gt; iv</t>
+  </si>
+  <si>
+    <t>NOT hr -&gt; hs</t>
+  </si>
+  <si>
+    <t>as RSHIFT 1 -&gt; bl</t>
+  </si>
+  <si>
+    <t>kk RSHIFT 2 -&gt; kl</t>
+  </si>
+  <si>
+    <t>b AND n -&gt; p</t>
+  </si>
+  <si>
+    <t>ln AND lp -&gt; lq</t>
+  </si>
+  <si>
+    <t>cj AND cp -&gt; cr</t>
+  </si>
+  <si>
+    <t>dl AND dn -&gt; do</t>
+  </si>
+  <si>
+    <t>ci RSHIFT 2 -&gt; cj</t>
+  </si>
+  <si>
+    <t>as OR bd -&gt; be</t>
+  </si>
+  <si>
+    <t>ge LSHIFT 15 -&gt; gi</t>
+  </si>
+  <si>
+    <t>hz RSHIFT 5 -&gt; ic</t>
+  </si>
+  <si>
+    <t>dv LSHIFT 1 -&gt; ep</t>
+  </si>
+  <si>
+    <t>kl OR kr -&gt; ks</t>
+  </si>
+  <si>
+    <t>gj OR gu -&gt; gv</t>
+  </si>
+  <si>
+    <t>he RSHIFT 5 -&gt; hh</t>
+  </si>
+  <si>
+    <t>NOT fg -&gt; fh</t>
+  </si>
+  <si>
+    <t>hg AND hh -&gt; hj</t>
+  </si>
+  <si>
+    <t>b OR n -&gt; o</t>
+  </si>
+  <si>
+    <t>jk LSHIFT 15 -&gt; jo</t>
+  </si>
+  <si>
+    <t>gz LSHIFT 15 -&gt; hd</t>
+  </si>
+  <si>
+    <t>cy LSHIFT 15 -&gt; dc</t>
+  </si>
+  <si>
+    <t>kk RSHIFT 5 -&gt; kn</t>
+  </si>
+  <si>
+    <t>ci RSHIFT 3 -&gt; ck</t>
+  </si>
+  <si>
+    <t>at OR az -&gt; ba</t>
+  </si>
+  <si>
+    <t>iu RSHIFT 3 -&gt; iw</t>
+  </si>
+  <si>
+    <t>ko AND kq -&gt; kr</t>
+  </si>
+  <si>
+    <t>NOT eh -&gt; ei</t>
+  </si>
+  <si>
+    <t>aq OR ar -&gt; as</t>
+  </si>
+  <si>
+    <t>iy AND ja -&gt; jb</t>
+  </si>
+  <si>
+    <t>dd RSHIFT 3 -&gt; df</t>
+  </si>
+  <si>
+    <t>bn RSHIFT 3 -&gt; bp</t>
+  </si>
+  <si>
+    <t>1 AND cc -&gt; cd</t>
+  </si>
+  <si>
+    <t>at AND az -&gt; bb</t>
+  </si>
+  <si>
+    <t>x OR ai -&gt; aj</t>
+  </si>
+  <si>
+    <t>kk AND kv -&gt; kx</t>
+  </si>
+  <si>
+    <t>ao OR an -&gt; ap</t>
+  </si>
+  <si>
+    <t>dy RSHIFT 3 -&gt; ea</t>
+  </si>
+  <si>
+    <t>x RSHIFT 1 -&gt; aq</t>
+  </si>
+  <si>
+    <t>eu AND fa -&gt; fc</t>
+  </si>
+  <si>
+    <t>kl AND kr -&gt; kt</t>
+  </si>
+  <si>
+    <t>ia AND ig -&gt; ii</t>
+  </si>
+  <si>
+    <t>df AND dg -&gt; di</t>
+  </si>
+  <si>
+    <t>NOT fx -&gt; fy</t>
+  </si>
+  <si>
+    <t>k AND m -&gt; n</t>
+  </si>
+  <si>
+    <t>bn RSHIFT 5 -&gt; bq</t>
+  </si>
+  <si>
+    <t>km AND kn -&gt; kp</t>
+  </si>
+  <si>
+    <t>dt LSHIFT 15 -&gt; dx</t>
+  </si>
+  <si>
+    <t>hz RSHIFT 2 -&gt; ia</t>
+  </si>
+  <si>
+    <t>aj AND al -&gt; am</t>
+  </si>
+  <si>
+    <t>cd LSHIFT 15 -&gt; ch</t>
+  </si>
+  <si>
+    <t>hc OR hd -&gt; he</t>
+  </si>
+  <si>
+    <t>he RSHIFT 3 -&gt; hg</t>
+  </si>
+  <si>
+    <t>bn OR by -&gt; bz</t>
+  </si>
+  <si>
+    <t>NOT kt -&gt; ku</t>
+  </si>
+  <si>
+    <t>z AND aa -&gt; ac</t>
+  </si>
+  <si>
+    <t>NOT ak -&gt; al</t>
+  </si>
+  <si>
+    <t>cu AND cw -&gt; cx</t>
+  </si>
+  <si>
+    <t>NOT ie -&gt; if</t>
+  </si>
+  <si>
+    <t>dy RSHIFT 2 -&gt; dz</t>
+  </si>
+  <si>
+    <t>ip LSHIFT 15 -&gt; it</t>
+  </si>
+  <si>
+    <t>de OR dk -&gt; dl</t>
+  </si>
+  <si>
+    <t>au OR av -&gt; aw</t>
+  </si>
+  <si>
+    <t>jg AND ji -&gt; jj</t>
+  </si>
+  <si>
+    <t>ci AND ct -&gt; cv</t>
+  </si>
+  <si>
+    <t>dy RSHIFT 5 -&gt; eb</t>
+  </si>
+  <si>
+    <t>hx OR hy -&gt; hz</t>
+  </si>
+  <si>
+    <t>eu OR fa -&gt; fb</t>
+  </si>
+  <si>
+    <t>gj RSHIFT 3 -&gt; gl</t>
+  </si>
+  <si>
+    <t>fo AND fz -&gt; gb</t>
+  </si>
+  <si>
+    <t>1 AND jj -&gt; jk</t>
+  </si>
+  <si>
+    <t>jp OR ka -&gt; kb</t>
+  </si>
+  <si>
+    <t>de AND dk -&gt; dm</t>
+  </si>
+  <si>
+    <t>ex AND ez -&gt; fa</t>
+  </si>
+  <si>
+    <t>df OR dg -&gt; dh</t>
+  </si>
+  <si>
+    <t>iv OR jb -&gt; jc</t>
+  </si>
+  <si>
+    <t>x RSHIFT 5 -&gt; aa</t>
+  </si>
+  <si>
+    <t>NOT hj -&gt; hk</t>
+  </si>
+  <si>
+    <t>NOT im -&gt; in</t>
+  </si>
+  <si>
+    <t>fl LSHIFT 1 -&gt; gf</t>
+  </si>
+  <si>
+    <t>hu LSHIFT 15 -&gt; hy</t>
+  </si>
+  <si>
+    <t>iq OR ip -&gt; ir</t>
+  </si>
+  <si>
+    <t>iu RSHIFT 5 -&gt; ix</t>
+  </si>
+  <si>
+    <t>NOT fc -&gt; fd</t>
+  </si>
+  <si>
+    <t>NOT el -&gt; em</t>
+  </si>
+  <si>
+    <t>ck OR cl -&gt; cm</t>
+  </si>
+  <si>
+    <t>et RSHIFT 3 -&gt; ev</t>
+  </si>
+  <si>
+    <t>hw LSHIFT 1 -&gt; iq</t>
+  </si>
+  <si>
+    <t>ci RSHIFT 5 -&gt; cl</t>
+  </si>
+  <si>
+    <t>iv AND jb -&gt; jd</t>
+  </si>
+  <si>
+    <t>dd RSHIFT 5 -&gt; dg</t>
+  </si>
+  <si>
+    <t>as RSHIFT 2 -&gt; at</t>
+  </si>
+  <si>
+    <t>NOT jy -&gt; jz</t>
+  </si>
+  <si>
+    <t>af AND ah -&gt; ai</t>
+  </si>
+  <si>
+    <t>1 AND ds -&gt; dt</t>
+  </si>
+  <si>
+    <t>jx AND jz -&gt; ka</t>
+  </si>
+  <si>
+    <t>da LSHIFT 1 -&gt; du</t>
+  </si>
+  <si>
+    <t>fs AND fu -&gt; fv</t>
+  </si>
+  <si>
+    <t>jp RSHIFT 1 -&gt; ki</t>
+  </si>
+  <si>
+    <t>iw AND ix -&gt; iz</t>
+  </si>
+  <si>
+    <t>iw OR ix -&gt; iy</t>
+  </si>
+  <si>
+    <t>eo LSHIFT 15 -&gt; es</t>
+  </si>
+  <si>
+    <t>ev AND ew -&gt; ey</t>
+  </si>
+  <si>
+    <t>ba AND bc -&gt; bd</t>
+  </si>
+  <si>
+    <t>fp AND fv -&gt; fx</t>
+  </si>
+  <si>
+    <t>jc AND je -&gt; jf</t>
+  </si>
+  <si>
+    <t>et RSHIFT 2 -&gt; eu</t>
+  </si>
+  <si>
+    <t>kg OR kf -&gt; kh</t>
+  </si>
+  <si>
+    <t>iu OR jf -&gt; jg</t>
+  </si>
+  <si>
+    <t>er OR es -&gt; et</t>
+  </si>
+  <si>
+    <t>fo RSHIFT 2 -&gt; fp</t>
+  </si>
+  <si>
+    <t>NOT ca -&gt; cb</t>
+  </si>
+  <si>
+    <t>bv AND bx -&gt; by</t>
+  </si>
+  <si>
+    <t>u LSHIFT 1 -&gt; ao</t>
+  </si>
+  <si>
+    <t>cm AND co -&gt; cp</t>
+  </si>
+  <si>
+    <t>y OR ae -&gt; af</t>
+  </si>
+  <si>
+    <t>bn AND by -&gt; ca</t>
+  </si>
+  <si>
+    <t>1 AND ke -&gt; kf</t>
+  </si>
+  <si>
+    <t>jt AND jv -&gt; jw</t>
+  </si>
+  <si>
+    <t>fq OR fr -&gt; fs</t>
+  </si>
+  <si>
+    <t>dy AND ej -&gt; el</t>
+  </si>
+  <si>
+    <t>NOT kc -&gt; kd</t>
+  </si>
+  <si>
+    <t>ev OR ew -&gt; ex</t>
+  </si>
+  <si>
+    <t>dd OR do -&gt; dp</t>
+  </si>
+  <si>
+    <t>NOT cv -&gt; cw</t>
+  </si>
+  <si>
+    <t>gr AND gt -&gt; gu</t>
+  </si>
+  <si>
+    <t>dd RSHIFT 1 -&gt; dw</t>
+  </si>
+  <si>
+    <t>NOT gw -&gt; gx</t>
+  </si>
+  <si>
+    <t>NOT iz -&gt; ja</t>
+  </si>
+  <si>
+    <t>1 AND io -&gt; ip</t>
+  </si>
+  <si>
+    <t>NOT ag -&gt; ah</t>
+  </si>
+  <si>
+    <t>b RSHIFT 5 -&gt; f</t>
+  </si>
+  <si>
+    <t>NOT cr -&gt; cs</t>
+  </si>
+  <si>
+    <t>kb AND kd -&gt; ke</t>
+  </si>
+  <si>
+    <t>jr AND js -&gt; ju</t>
+  </si>
+  <si>
+    <t>cq AND cs -&gt; ct</t>
+  </si>
+  <si>
+    <t>il AND in -&gt; io</t>
+  </si>
+  <si>
+    <t>NOT ju -&gt; jv</t>
+  </si>
+  <si>
+    <t>du OR dt -&gt; dv</t>
+  </si>
+  <si>
+    <t>dd AND do -&gt; dq</t>
+  </si>
+  <si>
+    <t>b RSHIFT 2 -&gt; d</t>
+  </si>
+  <si>
+    <t>jm LSHIFT 1 -&gt; kg</t>
+  </si>
+  <si>
+    <t>NOT dq -&gt; dr</t>
+  </si>
+  <si>
+    <t>bo OR bu -&gt; bv</t>
+  </si>
+  <si>
+    <t>gk OR gq -&gt; gr</t>
+  </si>
+  <si>
+    <t>he OR hp -&gt; hq</t>
+  </si>
+  <si>
+    <t>NOT h -&gt; i</t>
+  </si>
+  <si>
+    <t>hf AND hl -&gt; hn</t>
+  </si>
+  <si>
+    <t>gv AND gx -&gt; gy</t>
+  </si>
+  <si>
+    <t>x AND ai -&gt; ak</t>
+  </si>
+  <si>
+    <t>bo AND bu -&gt; bw</t>
+  </si>
+  <si>
+    <t>hq AND hs -&gt; ht</t>
+  </si>
+  <si>
+    <t>hz RSHIFT 1 -&gt; is</t>
+  </si>
+  <si>
+    <t>gj RSHIFT 5 -&gt; gm</t>
+  </si>
+  <si>
+    <t>g AND i -&gt; j</t>
+  </si>
+  <si>
+    <t>gk AND gq -&gt; gs</t>
+  </si>
+  <si>
+    <t>dp AND dr -&gt; ds</t>
+  </si>
+  <si>
+    <t>b RSHIFT 3 -&gt; e</t>
+  </si>
+  <si>
+    <t>gl AND gm -&gt; go</t>
+  </si>
+  <si>
+    <t>gl OR gm -&gt; gn</t>
+  </si>
+  <si>
+    <t>y AND ae -&gt; ag</t>
+  </si>
+  <si>
+    <t>hv OR hu -&gt; hw</t>
+  </si>
+  <si>
+    <t>1674 -&gt; b</t>
+  </si>
+  <si>
+    <t>ab AND ad -&gt; ae</t>
+  </si>
+  <si>
+    <t>NOT ac -&gt; ad</t>
+  </si>
+  <si>
+    <t>1 AND ht -&gt; hu</t>
+  </si>
+  <si>
+    <t>NOT hn -&gt; ho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -68,6 +1085,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -96,10 +1119,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20A22F2-6DC6-9649-B622-E18762B0409B}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -441,12 +1465,1711 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8F4387-9FD6-E241-86F1-7FFD05E57526}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A339"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A235" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A250" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A255" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A256" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A257" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A258" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A259" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A261" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A263" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A264" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A265" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A266" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A268" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A269" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A270" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A271" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A272" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A273" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A277" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A278" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A279" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A280" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A281" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A282" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A284" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A285" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A286" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A287" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A289" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A290" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A291" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A292" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A294" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A295" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A296" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A297" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A298" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A300" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A301" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A302" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A303" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A304" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A305" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A306" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A307" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A308" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A309" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A310" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A311" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A312" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A313" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A314" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A315" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A316" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A317" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A318" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A319" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A320" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A321" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A322" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A323" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A324" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A325" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A326" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A327" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A328" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A329" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A330" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A331" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A332" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A333" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A334" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A335" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A336" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A337" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A338" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A339" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>